--- a/src/kpi/docs/Book.xlsx
+++ b/src/kpi/docs/Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25545" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>BugId</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>进展10</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
   <si>
     <t>分类</t>
@@ -306,13 +312,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="[$-409]dddd;@"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dddd;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -343,16 +349,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,17 +413,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,7 +427,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,81 +477,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -506,181 +512,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,17 +789,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,15 +854,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -833,26 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,162 +886,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,13 +1115,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1124,29 +1130,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1475,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1830,7 +1839,14 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1"/>
+    <row r="14" ht="30" customHeight="1" spans="4:8">
+      <c r="D14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="15" ht="30" customHeight="1"/>
     <row r="16" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1"/>
@@ -1865,8 +1881,8 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1880,13 +1896,13 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>3</v>
@@ -1903,20 +1919,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="28">
         <v>4</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="33">
         <v>43919</v>
@@ -1946,7 +1961,7 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -1972,7 +1987,7 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>10</v>
@@ -1988,7 +2003,7 @@
       </c>
       <c r="F2" s="32"/>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="33">
         <v>43917</v>
@@ -1996,10 +2011,10 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>11</v>
@@ -2011,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="33">
         <v>43919</v>
@@ -2051,21 +2066,21 @@
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:4">
       <c r="A1" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="127" customHeight="1" spans="4:4">
       <c r="D2" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="121" customHeight="1"/>
@@ -2111,32 +2126,32 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="6"/>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" ht="26" customHeight="1" spans="1:12">
@@ -2144,13 +2159,13 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2162,19 +2177,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2184,7 +2199,7 @@
     <row r="4" s="16" customFormat="1" ht="25" customHeight="1" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -2198,13 +2213,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2220,7 +2235,7 @@
     <row r="6" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2236,7 +2251,7 @@
     <row r="7" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2252,7 +2267,7 @@
     <row r="8" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2268,7 +2283,7 @@
     <row r="9" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2284,7 +2299,7 @@
     <row r="10" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2300,7 +2315,7 @@
     <row r="11" s="16" customFormat="1" ht="21" customHeight="1" spans="2:11">
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -2354,16 +2369,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -2373,7 +2388,7 @@
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
       <c r="D2" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>37</v>
@@ -2474,32 +2489,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2509,13 +2524,13 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/src/kpi/docs/Book.xlsx
+++ b/src/kpi/docs/Book.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>BugId</t>
   </si>
@@ -118,7 +118,7 @@
     <t>标题5</t>
   </si>
   <si>
-    <t>进展5</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>876228</t>
@@ -160,7 +160,7 @@
     <t>进展9</t>
   </si>
   <si>
-    <t>876232</t>
+    <t>876232.3</t>
   </si>
   <si>
     <t>标题10</t>
@@ -169,7 +169,7 @@
     <t>进展10</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>4.3</t>
   </si>
   <si>
     <t>ABC</t>
@@ -179,18 +179,6 @@
   </si>
   <si>
     <t>文档地址</t>
-  </si>
-  <si>
-    <t>经验传承</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>http://</t>
-  </si>
-  <si>
-    <t>完成</t>
   </si>
   <si>
     <t>AOA</t>
@@ -1153,9 +1141,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1485,7 +1470,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1840,7 +1825,7 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="4:8">
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="33" t="s">
@@ -1879,13 +1864,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="46.8" customWidth="1"/>
     <col min="3" max="3" width="44.3" customWidth="1"/>
@@ -1915,26 +1900,6 @@
       </c>
       <c r="G1" s="37" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="28">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="33">
-        <v>43919</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +1952,7 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>10</v>
@@ -2003,7 +1968,7 @@
       </c>
       <c r="F2" s="32"/>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H2" s="33">
         <v>43917</v>
@@ -2011,10 +1976,10 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>11</v>
@@ -2026,7 +1991,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3" s="33">
         <v>43919</v>
@@ -2066,21 +2031,21 @@
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:4">
       <c r="A1" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="127" customHeight="1" spans="4:4">
       <c r="D2" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="121" customHeight="1"/>
@@ -2126,32 +2091,32 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="6"/>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" ht="26" customHeight="1" spans="1:12">
@@ -2159,13 +2124,13 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2177,19 +2142,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2199,7 +2164,7 @@
     <row r="4" s="16" customFormat="1" ht="25" customHeight="1" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -2213,13 +2178,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2235,7 +2200,7 @@
     <row r="6" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2251,7 +2216,7 @@
     <row r="7" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2267,7 +2232,7 @@
     <row r="8" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2283,7 +2248,7 @@
     <row r="9" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2299,7 +2264,7 @@
     <row r="10" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2315,7 +2280,7 @@
     <row r="11" s="16" customFormat="1" ht="21" customHeight="1" spans="2:11">
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -2369,16 +2334,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -2388,7 +2353,7 @@
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
       <c r="D2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>37</v>
@@ -2489,32 +2454,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2524,13 +2489,13 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/src/kpi/docs/Book.xlsx
+++ b/src/kpi/docs/Book.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>BugId</t>
   </si>
@@ -167,12 +167,6 @@
   </si>
   <si>
     <t>进展10</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
   <si>
     <t>分类</t>
@@ -300,13 +294,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dddd;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]dddd;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -338,8 +332,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,10 +369,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,9 +393,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,13 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +438,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,44 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -500,181 +494,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,21 +771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -811,16 +790,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,16 +846,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,142 +873,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,13 +1097,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1118,25 +1112,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,10 +1461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1824,14 +1818,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="4:8">
-      <c r="D14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="14" ht="30" customHeight="1"/>
     <row r="15" ht="30" customHeight="1"/>
     <row r="16" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1"/>
@@ -1846,13 +1833,12 @@
     <row r="26" ht="30" customHeight="1"/>
     <row r="27" ht="30" customHeight="1"/>
     <row r="28" ht="30" customHeight="1"/>
-    <row r="29" ht="30" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4:G13 G14:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4:G13 G14:G15">
       <formula1>"新建,解决中,打回,分析转出,待验证"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B13 B14:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B13 B14:B16">
       <formula1>"660P,710Q,6125Q"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1881,13 +1867,13 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>3</v>
@@ -1926,7 +1912,7 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -1952,7 +1938,7 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>10</v>
@@ -1968,7 +1954,7 @@
       </c>
       <c r="F2" s="32"/>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="33">
         <v>43917</v>
@@ -1976,10 +1962,10 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>11</v>
@@ -1991,7 +1977,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="33">
         <v>43919</v>
@@ -2031,21 +2017,21 @@
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:4">
       <c r="A1" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="127" customHeight="1" spans="4:4">
       <c r="D2" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="121" customHeight="1"/>
@@ -2091,32 +2077,32 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="6"/>
       <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" ht="26" customHeight="1" spans="1:12">
@@ -2124,13 +2110,13 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2142,19 +2128,19 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2164,7 +2150,7 @@
     <row r="4" s="16" customFormat="1" ht="25" customHeight="1" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -2178,13 +2164,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2200,7 +2186,7 @@
     <row r="6" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2216,7 +2202,7 @@
     <row r="7" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2232,7 +2218,7 @@
     <row r="8" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2248,7 +2234,7 @@
     <row r="9" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2264,7 +2250,7 @@
     <row r="10" s="16" customFormat="1" ht="21" customHeight="1" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2280,7 +2266,7 @@
     <row r="11" s="16" customFormat="1" ht="21" customHeight="1" spans="2:11">
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -2334,16 +2320,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -2353,7 +2339,7 @@
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
       <c r="D2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>37</v>
@@ -2454,32 +2440,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2489,13 +2475,13 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
